--- a/Data/output/stockReport_이창배.xlsx
+++ b/Data/output/stockReport_이창배.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\UiPath\EpkDemo\Data\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="11985" activeTab="1"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="stockList" sheetId="1" r:id="rId1"/>
     <sheet name="stockTable" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +78,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -115,17 +125,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -188,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,7 +267,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,7 +444,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,7 +455,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -420,37 +464,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -462,47 +506,983 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
     <col min="5" max="5" width="9.125" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>43788</v>
+      </c>
+      <c r="B2" s="7">
+        <v>53500</v>
+      </c>
+      <c r="C2" s="7">
+        <v>85300</v>
+      </c>
+      <c r="D2" s="7">
+        <v>14500</v>
+      </c>
+      <c r="E2" s="7">
+        <v>71900</v>
+      </c>
+      <c r="F2" s="7">
+        <v>561000</v>
+      </c>
+      <c r="G2" s="7">
+        <v>242500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>43788</v>
+      </c>
+      <c r="B3" s="7">
+        <v>53500</v>
+      </c>
+      <c r="C3" s="7">
+        <v>85300</v>
+      </c>
+      <c r="D3" s="7">
+        <v>14500</v>
+      </c>
+      <c r="E3" s="7">
+        <v>71900</v>
+      </c>
+      <c r="F3" s="7">
+        <v>561000</v>
+      </c>
+      <c r="G3" s="7">
+        <v>242500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>43788</v>
+      </c>
+      <c r="B4" s="7">
+        <v>53500</v>
+      </c>
+      <c r="C4" s="7">
+        <v>85300</v>
+      </c>
+      <c r="D4" s="7">
+        <v>14500</v>
+      </c>
+      <c r="E4" s="7">
+        <v>71900</v>
+      </c>
+      <c r="F4" s="7">
+        <v>561000</v>
+      </c>
+      <c r="G4" s="7">
+        <v>242500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/output/stockReport_이창배.xlsx
+++ b/Data/output/stockReport_이창배.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="11985" activeTab="1"/>
@@ -144,7 +144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -152,9 +152,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -444,7 +441,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -464,37 +461,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -506,10 +503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -524,961 +521,980 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>43788</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>53500</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>85300</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>14500</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>71900</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>561000</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>242500</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>43788</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>53500</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>85300</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>14500</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>71900</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>561000</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>242500</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>43788</v>
-      </c>
-      <c r="B4" s="7">
-        <v>53500</v>
-      </c>
-      <c r="C4" s="7">
-        <v>85300</v>
-      </c>
-      <c r="D4" s="7">
-        <v>14500</v>
-      </c>
-      <c r="E4" s="7">
-        <v>71900</v>
-      </c>
-      <c r="F4" s="7">
-        <v>561000</v>
-      </c>
-      <c r="G4" s="7">
-        <v>242500</v>
+      <c r="A4" s="7">
+        <v>43789</v>
+      </c>
+      <c r="B4" s="6">
+        <v>52100</v>
+      </c>
+      <c r="C4" s="6">
+        <v>82900</v>
+      </c>
+      <c r="D4" s="6">
+        <v>14200</v>
+      </c>
+      <c r="E4" s="6">
+        <v>70500</v>
+      </c>
+      <c r="F4" s="6">
+        <v>553000</v>
+      </c>
+      <c r="G4" s="6">
+        <v>238500</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="7">
+        <v>43789</v>
+      </c>
+      <c r="B5" s="6">
+        <v>52100</v>
+      </c>
+      <c r="C5" s="6">
+        <v>83000</v>
+      </c>
+      <c r="D5" s="6">
+        <v>14200</v>
+      </c>
+      <c r="E5" s="6">
+        <v>70900</v>
+      </c>
+      <c r="F5" s="6">
+        <v>552000</v>
+      </c>
+      <c r="G5" s="6">
+        <v>236500</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="7">
+        <v>43789</v>
+      </c>
+      <c r="B6" s="6">
+        <v>52000</v>
+      </c>
+      <c r="C6" s="6">
+        <v>82700</v>
+      </c>
+      <c r="D6" s="6">
+        <v>14150</v>
+      </c>
+      <c r="E6" s="6">
+        <v>70900</v>
+      </c>
+      <c r="F6" s="6">
+        <v>556000</v>
+      </c>
+      <c r="G6" s="6">
+        <v>236000</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
